--- a/заказы/статистика филиалы/2023/10,23/11,10,23 КИ/дв 11,10,23 днрсч.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/11,10,23 КИ/дв 11,10,23 днрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\11,10,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\11,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BADBE65-E817-46B4-867A-2F631EEE24AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B2249-56D8-405F-88F1-21A261838055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AC$129</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6408,8 +6408,8 @@
   <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD34" sqref="AD34"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6422,18 +6422,17 @@
     <col min="9" max="9" width="5" style="19" customWidth="1"/>
     <col min="10" max="11" width="1.33203125" style="7" customWidth="1"/>
     <col min="12" max="13" width="1.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="7" customWidth="1"/>
     <col min="15" max="16" width="1.1640625" style="7" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="7"/>
     <col min="18" max="19" width="10" style="7" customWidth="1"/>
     <col min="20" max="20" width="2.1640625" style="7" customWidth="1"/>
     <col min="21" max="22" width="5.83203125" style="7" customWidth="1"/>
     <col min="23" max="25" width="7.83203125" style="7" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="10" style="7" customWidth="1"/>
+    <col min="26" max="26" width="20.5" style="7" customWidth="1"/>
+    <col min="27" max="28" width="8.5" style="7" customWidth="1"/>
     <col min="29" max="29" width="2.5" style="7" customWidth="1"/>
-    <col min="30" max="30" width="24" style="7" customWidth="1"/>
-    <col min="31" max="31" width="22.83203125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="20" style="7" customWidth="1"/>
     <col min="32" max="16384" width="10.5" style="7"/>
   </cols>
   <sheetData>
